--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3518781.928230986</v>
+        <v>3514529.448604361</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7960834.368509556</v>
+        <v>7960834.368509553</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.9075077423441</v>
+        <v>206.0457378779508</v>
       </c>
       <c r="H2" t="n">
-        <v>325.1859052051723</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>156.6862937548848</v>
+        <v>156.6862937548844</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>62.22601572607334</v>
+        <v>62.22601572607282</v>
       </c>
       <c r="S2" t="n">
-        <v>177.2262711387727</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.9882312337392</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2340345260132</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>118.8896124823129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5970034220424</v>
+        <v>107.2178712576144</v>
       </c>
       <c r="H3" t="n">
         <v>105.0256931046872</v>
       </c>
       <c r="I3" t="n">
-        <v>63.6942957103148</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.80849853870483</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>157.8170057799449</v>
+        <v>157.8170057799448</v>
       </c>
       <c r="T3" t="n">
-        <v>50.2738280351636</v>
+        <v>197.1557544486215</v>
       </c>
       <c r="U3" t="n">
         <v>225.8922693348453</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>83.63998963029918</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.284891972296</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>177.7682161852944</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>235.746633200876</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>149.8508412190879</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>74.52922194059501</v>
       </c>
       <c r="G6" t="n">
         <v>136.0669836643703</v>
@@ -1037,7 +1037,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>181.1549927081313</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1056,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>61.59020550332191</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>121.6623814073762</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>106.1085585939078</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>130.9898714432076</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>90.69811547110022</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>259.8810940983705</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1423,13 +1423,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>54.32649042089665</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>55.83068150864287</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>31.40247677522967</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,10 +1824,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>103.1686991936193</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428163</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2323,16 +2323,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206822</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2377,13 +2377,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8253826161909023</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>18.70843787977265</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2763,13 +2763,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>105.6507867899569</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>14.19454216862693</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3195,10 +3195,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>31.26260713376563</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>41.55695577161151</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>78.71385496658196</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>177.6965697803346</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3751,10 +3751,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3906,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>60.25690685266579</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>192.5871593887784</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>71.22475183604979</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1366.905643290661</v>
+        <v>1941.490116416304</v>
       </c>
       <c r="C2" t="n">
-        <v>1366.905643290661</v>
+        <v>1572.527599475892</v>
       </c>
       <c r="D2" t="n">
-        <v>1366.905643290661</v>
+        <v>1214.261900869142</v>
       </c>
       <c r="E2" t="n">
-        <v>1366.905643290661</v>
+        <v>828.4736482708975</v>
       </c>
       <c r="F2" t="n">
-        <v>955.9197385010534</v>
+        <v>417.4877434812899</v>
       </c>
       <c r="G2" t="n">
-        <v>537.8313468421198</v>
+        <v>209.3607355237639</v>
       </c>
       <c r="H2" t="n">
-        <v>209.360735523764</v>
+        <v>209.3607355237639</v>
       </c>
       <c r="I2" t="n">
-        <v>51.09175193297128</v>
+        <v>51.09175193297148</v>
       </c>
       <c r="J2" t="n">
-        <v>156.4961545710324</v>
+        <v>156.4961545710332</v>
       </c>
       <c r="K2" t="n">
-        <v>435.2148351004986</v>
+        <v>435.2148351005005</v>
       </c>
       <c r="L2" t="n">
-        <v>833.2666318311601</v>
+        <v>833.2666318311633</v>
       </c>
       <c r="M2" t="n">
-        <v>1292.782497537219</v>
+        <v>1292.782497537223</v>
       </c>
       <c r="N2" t="n">
-        <v>1745.101812813635</v>
+        <v>1745.101812813641</v>
       </c>
       <c r="O2" t="n">
-        <v>2127.026478132802</v>
+        <v>2127.02647813281</v>
       </c>
       <c r="P2" t="n">
-        <v>2415.315960935755</v>
+        <v>2415.315960935764</v>
       </c>
       <c r="Q2" t="n">
-        <v>2554.587596648564</v>
+        <v>2554.587596648574</v>
       </c>
       <c r="R2" t="n">
-        <v>2491.733035309096</v>
+        <v>2491.733035309106</v>
       </c>
       <c r="S2" t="n">
-        <v>2312.716599815386</v>
+        <v>2491.733035309106</v>
       </c>
       <c r="T2" t="n">
-        <v>2093.536568266155</v>
+        <v>2272.553003759875</v>
       </c>
       <c r="U2" t="n">
-        <v>1839.764816219677</v>
+        <v>2272.553003759875</v>
       </c>
       <c r="V2" t="n">
-        <v>1839.764816219677</v>
+        <v>1941.490116416304</v>
       </c>
       <c r="W2" t="n">
-        <v>1486.996160949563</v>
+        <v>1941.490116416304</v>
       </c>
       <c r="X2" t="n">
-        <v>1486.996160949563</v>
+        <v>1941.490116416304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1366.905643290661</v>
+        <v>1941.490116416304</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.652206113561</v>
+        <v>894.6386426037197</v>
       </c>
       <c r="C3" t="n">
-        <v>814.199176832434</v>
+        <v>720.1856133225928</v>
       </c>
       <c r="D3" t="n">
-        <v>665.2647671711827</v>
+        <v>571.2512036613415</v>
       </c>
       <c r="E3" t="n">
-        <v>506.0273121657272</v>
+        <v>412.013748655886</v>
       </c>
       <c r="F3" t="n">
-        <v>359.4927541926121</v>
+        <v>265.479190682771</v>
       </c>
       <c r="G3" t="n">
-        <v>221.5159830592359</v>
+        <v>157.1783106245747</v>
       </c>
       <c r="H3" t="n">
-        <v>115.4294243676327</v>
+        <v>51.09175193297148</v>
       </c>
       <c r="I3" t="n">
-        <v>51.09175193297128</v>
+        <v>51.09175193297148</v>
       </c>
       <c r="J3" t="n">
-        <v>120.1765123687501</v>
+        <v>51.09175193297148</v>
       </c>
       <c r="K3" t="n">
-        <v>364.8742147270525</v>
+        <v>295.7894542912745</v>
       </c>
       <c r="L3" t="n">
-        <v>755.3048694066714</v>
+        <v>686.2201089708944</v>
       </c>
       <c r="M3" t="n">
-        <v>1262.898249633819</v>
+        <v>1193.813489198043</v>
       </c>
       <c r="N3" t="n">
-        <v>1799.633129631794</v>
+        <v>1730.548369196019</v>
       </c>
       <c r="O3" t="n">
-        <v>2224.225006908665</v>
+        <v>2155.140246472892</v>
       </c>
       <c r="P3" t="n">
-        <v>2390.854132153956</v>
+        <v>2390.854132153965</v>
       </c>
       <c r="Q3" t="n">
-        <v>2554.587596648564</v>
+        <v>2554.587596648574</v>
       </c>
       <c r="R3" t="n">
-        <v>2500.2355779226</v>
+        <v>2554.587596648574</v>
       </c>
       <c r="S3" t="n">
-        <v>2340.82446097316</v>
+        <v>2395.176479699135</v>
       </c>
       <c r="T3" t="n">
-        <v>2290.042816493197</v>
+        <v>2196.029252983355</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.86880706406</v>
+        <v>1967.855243554219</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.716698832317</v>
+        <v>1732.703135322476</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.479342104116</v>
+        <v>1478.465778594275</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.627841898583</v>
+        <v>1270.614278388742</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.867543133629</v>
+        <v>1062.853979623788</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.09175193297128</v>
+        <v>51.09175193297148</v>
       </c>
       <c r="C4" t="n">
-        <v>51.09175193297128</v>
+        <v>51.09175193297148</v>
       </c>
       <c r="D4" t="n">
-        <v>51.09175193297128</v>
+        <v>51.09175193297148</v>
       </c>
       <c r="E4" t="n">
-        <v>51.09175193297128</v>
+        <v>51.09175193297148</v>
       </c>
       <c r="F4" t="n">
-        <v>51.09175193297128</v>
+        <v>51.09175193297148</v>
       </c>
       <c r="G4" t="n">
-        <v>51.09175193297128</v>
+        <v>51.09175193297148</v>
       </c>
       <c r="H4" t="n">
-        <v>51.09175193297128</v>
+        <v>51.09175193297148</v>
       </c>
       <c r="I4" t="n">
-        <v>51.09175193297128</v>
+        <v>51.09175193297148</v>
       </c>
       <c r="J4" t="n">
-        <v>51.09175193297128</v>
+        <v>51.09175193297148</v>
       </c>
       <c r="K4" t="n">
-        <v>101.0304570771853</v>
+        <v>101.0304570771859</v>
       </c>
       <c r="L4" t="n">
-        <v>220.4612409703255</v>
+        <v>220.4612409703267</v>
       </c>
       <c r="M4" t="n">
-        <v>356.7733802486074</v>
+        <v>356.7733802486092</v>
       </c>
       <c r="N4" t="n">
-        <v>495.2789379493169</v>
+        <v>495.2789379493192</v>
       </c>
       <c r="O4" t="n">
-        <v>607.1949427455603</v>
+        <v>607.1949427455633</v>
       </c>
       <c r="P4" t="n">
-        <v>679.4377367071361</v>
+        <v>679.4377367071395</v>
       </c>
       <c r="Q4" t="n">
-        <v>679.4377367071361</v>
+        <v>679.4377367071395</v>
       </c>
       <c r="R4" t="n">
-        <v>679.4377367071361</v>
+        <v>679.4377367071395</v>
       </c>
       <c r="S4" t="n">
-        <v>679.4377367071361</v>
+        <v>679.4377367071395</v>
       </c>
       <c r="T4" t="n">
-        <v>594.9528986967329</v>
+        <v>679.4377367071395</v>
       </c>
       <c r="U4" t="n">
-        <v>305.7762401388582</v>
+        <v>679.4377367071395</v>
       </c>
       <c r="V4" t="n">
-        <v>51.09175193297128</v>
+        <v>679.4377367071395</v>
       </c>
       <c r="W4" t="n">
-        <v>51.09175193297128</v>
+        <v>499.8738819745189</v>
       </c>
       <c r="X4" t="n">
-        <v>51.09175193297128</v>
+        <v>271.8843310765016</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.09175193297128</v>
+        <v>51.09175193297148</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1317.236558948563</v>
+        <v>1844.676600992462</v>
       </c>
       <c r="C5" t="n">
-        <v>1317.236558948563</v>
+        <v>1475.714084052051</v>
       </c>
       <c r="D5" t="n">
-        <v>1317.236558948563</v>
+        <v>1117.4483854453</v>
       </c>
       <c r="E5" t="n">
-        <v>1317.236558948563</v>
+        <v>879.3204731211831</v>
       </c>
       <c r="F5" t="n">
-        <v>906.2506541589553</v>
+        <v>468.3345683315756</v>
       </c>
       <c r="G5" t="n">
-        <v>489.1628723953828</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>170.9397571678923</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>72.4810365613864</v>
+        <v>239.8866855817394</v>
       </c>
       <c r="K5" t="n">
-        <v>434.6131205227167</v>
+        <v>643.3537986017849</v>
       </c>
       <c r="L5" t="n">
-        <v>987.4263787689159</v>
+        <v>987.4263787689155</v>
       </c>
       <c r="M5" t="n">
-        <v>1619.144189752228</v>
+        <v>1619.144189752227</v>
       </c>
       <c r="N5" t="n">
         <v>2246.451857812074</v>
       </c>
       <c r="O5" t="n">
-        <v>2416.620883129034</v>
+        <v>2416.620883129033</v>
       </c>
       <c r="P5" t="n">
         <v>2527.35520837856</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2406.124290896983</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2254.759804817097</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2001.068101562248</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1670.005214218677</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W5" t="n">
-        <v>1317.236558948563</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="X5" t="n">
-        <v>1317.236558948563</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="Y5" t="n">
-        <v>1317.236558948563</v>
+        <v>2231.276441056584</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.6684709946088</v>
+        <v>893.4159553857312</v>
       </c>
       <c r="C6" t="n">
-        <v>790.2154417134818</v>
+        <v>718.9629261046042</v>
       </c>
       <c r="D6" t="n">
-        <v>641.2810320522306</v>
+        <v>570.0285164433529</v>
       </c>
       <c r="E6" t="n">
-        <v>482.0435770467751</v>
+        <v>410.7910614378974</v>
       </c>
       <c r="F6" t="n">
         <v>335.5090190736601</v>
@@ -4640,28 +4640,28 @@
         <v>198.067621432882</v>
       </c>
       <c r="H6" t="n">
-        <v>97.15164357768663</v>
+        <v>97.15164357768661</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="K6" t="n">
-        <v>118.8546062313602</v>
+        <v>380.675190873813</v>
       </c>
       <c r="L6" t="n">
-        <v>297.8406424065417</v>
+        <v>885.0367307399315</v>
       </c>
       <c r="M6" t="n">
-        <v>932.0196261855803</v>
+        <v>1367.541868311954</v>
       </c>
       <c r="N6" t="n">
-        <v>1566.198609964619</v>
+        <v>1566.198609964618</v>
       </c>
       <c r="O6" t="n">
-        <v>2115.634618717342</v>
+        <v>2115.634618717341</v>
       </c>
       <c r="P6" t="n">
         <v>2539.602387198178</v>
@@ -4676,22 +4676,22 @@
         <v>2391.760639664977</v>
       </c>
       <c r="T6" t="n">
-        <v>2194.771343825065</v>
+        <v>2194.771343825064</v>
       </c>
       <c r="U6" t="n">
-        <v>1966.632556336231</v>
+        <v>1966.63255633623</v>
       </c>
       <c r="V6" t="n">
         <v>1731.480448104488</v>
       </c>
       <c r="W6" t="n">
-        <v>1548.495606985163</v>
+        <v>1477.243091376286</v>
       </c>
       <c r="X6" t="n">
-        <v>1340.644106779631</v>
+        <v>1269.391591170753</v>
       </c>
       <c r="Y6" t="n">
-        <v>1132.883808014677</v>
+        <v>1061.631292405799</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>511.0654910184934</v>
+        <v>131.3337031186</v>
       </c>
       <c r="C7" t="n">
-        <v>342.1293080905865</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="D7" t="n">
-        <v>192.0126686782508</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="E7" t="n">
-        <v>192.0126686782508</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="F7" t="n">
-        <v>192.0126686782508</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="G7" t="n">
-        <v>192.0126686782508</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="H7" t="n">
         <v>69.12137432736571</v>
@@ -4725,7 +4725,7 @@
         <v>69.12137432736571</v>
       </c>
       <c r="J7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="K7" t="n">
         <v>152.2947161636129</v>
@@ -4749,28 +4749,28 @@
         <v>1051.181468027348</v>
       </c>
       <c r="R7" t="n">
-        <v>920.7035067467505</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="S7" t="n">
-        <v>920.7035067467505</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="T7" t="n">
-        <v>920.7035067467505</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="U7" t="n">
-        <v>920.7035067467505</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="V7" t="n">
-        <v>920.7035067467505</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="W7" t="n">
-        <v>920.7035067467505</v>
+        <v>761.7642979903871</v>
       </c>
       <c r="X7" t="n">
-        <v>692.7139558487331</v>
+        <v>533.7747470923698</v>
       </c>
       <c r="Y7" t="n">
-        <v>692.7139558487331</v>
+        <v>312.9821679488397</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1313.273607737845</v>
+        <v>1653.287154902436</v>
       </c>
       <c r="C8" t="n">
-        <v>944.3110907974335</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="D8" t="n">
-        <v>944.3110907974335</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G8" t="n">
         <v>117.6204357321147</v>
@@ -4801,16 +4801,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4822,7 +4822,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190805</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2184.059060190805</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2184.059060190805</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>1810.593301929725</v>
+        <v>2430.026326942369</v>
       </c>
       <c r="Y8" t="n">
-        <v>1420.453969953914</v>
+        <v>2039.886994966557</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143501</v>
+        <v>482.9033490193025</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458217</v>
+        <v>777.6069060507741</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105042</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1528.154053606939</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
         <v>2538.001278676482</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>349.2765195627319</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C10" t="n">
-        <v>349.2765195627319</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1598801503962</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1048.115628253778</v>
+        <v>1544.831862022881</v>
       </c>
       <c r="V10" t="n">
-        <v>793.4311400478913</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="W10" t="n">
-        <v>530.9249843929716</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X10" t="n">
-        <v>530.9249843929716</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y10" t="n">
-        <v>530.9249843929716</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="11">
@@ -5117,25 +5117,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356195</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>148.6919058973624</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2323.522752046155</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2103.921287069096</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1814.846060413294</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1560.161572207407</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1560.161572207407</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1332.172021309389</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1111.379442165859</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,10 +5275,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075813</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5311,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832229</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2415.243410069927</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2232.388575724832</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2012.787110747773</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1723.711884091971</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134626</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5554,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5661,10 +5661,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>198.027470314254</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168618</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>94.65038286230612</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4517.069482196493</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4517.069482196493</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4517.069482196493</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>4262.384993990607</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3274.788447112224</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3105.852264184317</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>2955.735624771981</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>2807.822531189588</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>2660.932583691678</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>2493.736484406558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>2352.024653248756</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3677.229491085994</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3677.229491085994</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3456.436911942464</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>983.3556038098237</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C34" t="n">
-        <v>814.4194208819168</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D34" t="n">
-        <v>664.3027814695811</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E34" t="n">
-        <v>516.389687887188</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>135.7933860495997</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924458</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718571</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1613.786198681611</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>1385.796647783593</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>1165.004068640063</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6961,13 +6961,13 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -6979,7 +6979,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7131,16 +7131,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7174,19 +7174,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>150.8995423128889</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2267.47159895366</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>768.5380889459582</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C43" t="n">
-        <v>599.6019060180513</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D43" t="n">
-        <v>449.4852666057155</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>301.5721730233224</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>154.6822255254121</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817745</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.1865537761979</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7648,10 +7648,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>951.777212765616</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>782.8410298377091</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
         <v>484.8112968429803</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1905.516886736721</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V46" t="n">
-        <v>1650.832398530834</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W46" t="n">
-        <v>1361.415228493873</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>1133.425677595856</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>1133.425677595856</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>56.30844904164192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>159.7352724044613</v>
+        <v>229.5178587032304</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>282.3928579664019</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>206.8120447736135</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8297,16 +8297,16 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>42.17822036311881</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>459.2743913378118</v>
+        <v>306.0684860781992</v>
       </c>
       <c r="N6" t="n">
-        <v>439.9214566933068</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780647</v>
+        <v>186.4490126143851</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>111.1976478713722</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>125.1956044930017</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.97276993489202</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23901,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>62.35543909864957</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>127.7255247667965</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>75.37549921168767</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>67.07129414993861</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>114.1584408891656</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>39.70888054695403</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>146.9958004224552</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>3.329716221310008</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>105.2672314396031</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25836,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>24.8182909385099</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>214.9597225531944</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>672605.3283593907</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>672605.3283593908</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>672605.3283593907</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244615</v>
+        <v>759463.6371244618</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244626</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="H2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="J2" t="n">
         <v>746610.6047132552</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.604713255</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132551</v>
       </c>
       <c r="K2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.604713255</v>
+        <v>746610.6047132551</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548460.074616193</v>
+        <v>548460.0746161959</v>
       </c>
       <c r="C3" t="n">
-        <v>225009.9816299304</v>
+        <v>225009.9816299277</v>
       </c>
       <c r="D3" t="n">
         <v>291685.0095230265</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167098.1292843793</v>
+        <v>167098.1292843798</v>
       </c>
       <c r="K3" t="n">
-        <v>498.761924360898</v>
+        <v>498.7619243602991</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247452.3619198074</v>
+        <v>247452.3619198066</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
@@ -26435,13 +26435,13 @@
         <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719676</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719644</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719731</v>
       </c>
       <c r="K4" t="n">
         <v>7507.368461719667</v>
@@ -26450,13 +26450,13 @@
         <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719738</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80023.31371946003</v>
+        <v>80023.31371946022</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905218</v>
+        <v>85512.93677905216</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-116472.1131309989</v>
+        <v>-116472.1131310009</v>
       </c>
       <c r="C6" t="n">
-        <v>250628.0840553274</v>
+        <v>250628.0840553302</v>
       </c>
       <c r="D6" t="n">
-        <v>241726.9916148469</v>
+        <v>241726.9916148471</v>
       </c>
       <c r="E6" t="n">
-        <v>130495.2648030828</v>
+        <v>130147.8855487257</v>
       </c>
       <c r="F6" t="n">
-        <v>637980.7064276288</v>
+        <v>637633.3271732713</v>
       </c>
       <c r="G6" t="n">
-        <v>637980.7064276284</v>
+        <v>637633.3271732714</v>
       </c>
       <c r="H6" t="n">
-        <v>637980.7064276283</v>
+        <v>637633.3271732716</v>
       </c>
       <c r="I6" t="n">
-        <v>637980.7064276284</v>
+        <v>637633.3271732716</v>
       </c>
       <c r="J6" t="n">
-        <v>470882.5771432489</v>
+        <v>470535.1978888917</v>
       </c>
       <c r="K6" t="n">
-        <v>637481.9445032676</v>
+        <v>637134.5652489113</v>
       </c>
       <c r="L6" t="n">
-        <v>637980.7064276286</v>
+        <v>637633.3271732714</v>
       </c>
       <c r="M6" t="n">
-        <v>505373.4126987017</v>
+        <v>505026.0334443446</v>
       </c>
       <c r="N6" t="n">
-        <v>637980.7064276286</v>
+        <v>637633.3271732716</v>
       </c>
       <c r="O6" t="n">
-        <v>637980.7064276284</v>
+        <v>637633.3271732713</v>
       </c>
       <c r="P6" t="n">
-        <v>637980.7064276282</v>
+        <v>637633.3271732713</v>
       </c>
     </row>
   </sheetData>
@@ -26718,10 +26718,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817362</v>
+        <v>347.0634059817383</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.646899162141</v>
+        <v>638.6468991621434</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,7 +26807,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817362</v>
+        <v>347.0634059817383</v>
       </c>
       <c r="C3" t="n">
-        <v>246.4126943563289</v>
+        <v>246.4126943563268</v>
       </c>
       <c r="D3" t="n">
         <v>340.588791779474</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.646899162141</v>
+        <v>638.6468991621434</v>
       </c>
       <c r="C4" t="n">
-        <v>1.937932937897866</v>
+        <v>1.937932937895312</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.646899162141</v>
+        <v>638.6468991621432</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937897866</v>
+        <v>1.937932937895539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.646899162141</v>
+        <v>638.6468991621434</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937897866</v>
+        <v>1.937932937895312</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>207.8617698643934</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>325.1859052051723</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>177.2262711387725</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2340345260132</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>267.3483261737407</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>29.37913216442801</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>63.69429571031464</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>53.80849853870455</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>146.8819264134578</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.6627788836668</v>
       </c>
       <c r="I4" t="n">
-        <v>136.6293971077897</v>
+        <v>136.6293971077896</v>
       </c>
       <c r="J4" t="n">
-        <v>49.11144063601766</v>
+        <v>49.11144063601739</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.75546894845222</v>
+        <v>33.75546894845191</v>
       </c>
       <c r="R4" t="n">
-        <v>149.1528076724864</v>
+        <v>149.1528076724863</v>
       </c>
       <c r="S4" t="n">
-        <v>213.1097037866938</v>
+        <v>213.1097037866937</v>
       </c>
       <c r="T4" t="n">
-        <v>141.6315047027132</v>
+        <v>225.2714943330124</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.284891972296</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>108.7547821512966</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>146.1837368713857</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>62.80102189587811</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27706,7 +27706,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>70.53999045278887</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27757,7 +27757,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>70.53999045278835</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>105.6566155953059</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27791,7 +27791,7 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>31.04971526185635</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
         <v>123.266557879417</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
         <v>205.3658819001186</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>276.6252830695728</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>238.7412292352614</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>195.5290386501004</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>26.64190423822055</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29040,19 +29040,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29097,16 +29097,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.395229772790898</v>
+        <v>1.395229772790907</v>
       </c>
       <c r="H2" t="n">
-        <v>14.28889691059479</v>
+        <v>14.28889691059488</v>
       </c>
       <c r="I2" t="n">
-        <v>53.78959581552115</v>
+        <v>53.78959581552148</v>
       </c>
       <c r="J2" t="n">
-        <v>118.4183829284116</v>
+        <v>118.4183829284123</v>
       </c>
       <c r="K2" t="n">
-        <v>177.4784592106504</v>
+        <v>177.4784592106514</v>
       </c>
       <c r="L2" t="n">
-        <v>220.1777223696999</v>
+        <v>220.1777223697012</v>
       </c>
       <c r="M2" t="n">
-        <v>244.99013984157</v>
+        <v>244.9901398415715</v>
       </c>
       <c r="N2" t="n">
-        <v>248.9543364335121</v>
+        <v>248.9543364335136</v>
       </c>
       <c r="O2" t="n">
-        <v>235.0805203803226</v>
+        <v>235.0805203803241</v>
       </c>
       <c r="P2" t="n">
-        <v>200.6357853645473</v>
+        <v>200.6357853645485</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.6691191264732</v>
+        <v>150.6691191264741</v>
       </c>
       <c r="R2" t="n">
-        <v>87.64310221507634</v>
+        <v>87.64310221507687</v>
       </c>
       <c r="S2" t="n">
-        <v>31.79379844747262</v>
+        <v>31.79379844747282</v>
       </c>
       <c r="T2" t="n">
-        <v>6.10761833039216</v>
+        <v>6.107618330392197</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1116183818232718</v>
+        <v>0.1116183818232725</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7465137411682627</v>
+        <v>0.7465137411682673</v>
       </c>
       <c r="H3" t="n">
-        <v>7.209751131809276</v>
+        <v>7.20975113180932</v>
       </c>
       <c r="I3" t="n">
-        <v>25.70233714110028</v>
+        <v>25.70233714110044</v>
       </c>
       <c r="J3" t="n">
-        <v>70.52917762502435</v>
+        <v>70.52917762502477</v>
       </c>
       <c r="K3" t="n">
-        <v>120.5455982832979</v>
+        <v>120.5455982832987</v>
       </c>
       <c r="L3" t="n">
-        <v>162.0884331426967</v>
+        <v>162.0884331426977</v>
       </c>
       <c r="M3" t="n">
-        <v>189.1495562600462</v>
+        <v>189.1495562600473</v>
       </c>
       <c r="N3" t="n">
-        <v>194.155782182179</v>
+        <v>194.1557821821802</v>
       </c>
       <c r="O3" t="n">
-        <v>177.6146092857664</v>
+        <v>177.6146092857675</v>
       </c>
       <c r="P3" t="n">
-        <v>142.5513827323852</v>
+        <v>142.5513827323861</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.29182422351369</v>
+        <v>95.29182422351427</v>
       </c>
       <c r="R3" t="n">
-        <v>46.3493356139383</v>
+        <v>46.34933561393858</v>
       </c>
       <c r="S3" t="n">
-        <v>13.86616532389294</v>
+        <v>13.86616532389303</v>
       </c>
       <c r="T3" t="n">
-        <v>3.008974246200146</v>
+        <v>3.008974246200164</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04911274612949099</v>
+        <v>0.04911274612949129</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6258520435736226</v>
+        <v>0.6258520435736263</v>
       </c>
       <c r="H4" t="n">
-        <v>5.564393623772758</v>
+        <v>5.564393623772792</v>
       </c>
       <c r="I4" t="n">
-        <v>18.82107781946858</v>
+        <v>18.8210778194687</v>
       </c>
       <c r="J4" t="n">
-        <v>44.24773948065511</v>
+        <v>44.24773948065538</v>
       </c>
       <c r="K4" t="n">
-        <v>72.71262833518995</v>
+        <v>72.71262833519039</v>
       </c>
       <c r="L4" t="n">
-        <v>93.04713018730023</v>
+        <v>93.04713018730079</v>
       </c>
       <c r="M4" t="n">
-        <v>98.10515261218157</v>
+        <v>98.10515261218217</v>
       </c>
       <c r="N4" t="n">
-        <v>95.77243135886178</v>
+        <v>95.77243135886236</v>
       </c>
       <c r="O4" t="n">
-        <v>88.46134157711533</v>
+        <v>88.46134157711587</v>
       </c>
       <c r="P4" t="n">
-        <v>75.69395988821337</v>
+        <v>75.69395988821384</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.40657430324217</v>
+        <v>52.40657430324248</v>
       </c>
       <c r="R4" t="n">
-        <v>28.14058370468306</v>
+        <v>28.14058370468323</v>
       </c>
       <c r="S4" t="n">
-        <v>10.90689425027849</v>
+        <v>10.90689425027856</v>
       </c>
       <c r="T4" t="n">
-        <v>2.674095095269114</v>
+        <v>2.67409509526913</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03413738419492491</v>
+        <v>0.03413738419492512</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,16 +31849,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>576.057346513631</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,16 +32092,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,7 +32794,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>237.3557891543625</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,10 +33022,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33037,16 +33037,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33268,22 +33268,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>360.9226811202611</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33444,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,10 +33970,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>184.4971006716334</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33985,13 +33985,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34207,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>570.6116741576916</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>106.4690935737991</v>
+        <v>106.4690935737998</v>
       </c>
       <c r="K2" t="n">
-        <v>281.5340207368346</v>
+        <v>281.5340207368356</v>
       </c>
       <c r="L2" t="n">
-        <v>402.072521950163</v>
+        <v>402.0725219501644</v>
       </c>
       <c r="M2" t="n">
-        <v>464.1574401071298</v>
+        <v>464.1574401071313</v>
       </c>
       <c r="N2" t="n">
-        <v>456.8881972489054</v>
+        <v>456.8881972489069</v>
       </c>
       <c r="O2" t="n">
-        <v>385.7824902213813</v>
+        <v>385.7824902213827</v>
       </c>
       <c r="P2" t="n">
-        <v>291.2014977807604</v>
+        <v>291.2014977807617</v>
       </c>
       <c r="Q2" t="n">
-        <v>140.6784199119284</v>
+        <v>140.6784199119293</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>69.78258629876649</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>247.1693963215176</v>
+        <v>247.1693963215183</v>
       </c>
       <c r="L3" t="n">
-        <v>394.3743986662817</v>
+        <v>394.3743986662827</v>
       </c>
       <c r="M3" t="n">
-        <v>512.7205860880279</v>
+        <v>512.720586088029</v>
       </c>
       <c r="N3" t="n">
-        <v>542.1564444423992</v>
+        <v>542.1564444424005</v>
       </c>
       <c r="O3" t="n">
-        <v>428.8806841180515</v>
+        <v>428.8806841180526</v>
       </c>
       <c r="P3" t="n">
-        <v>168.3122477225163</v>
+        <v>238.0948340212863</v>
       </c>
       <c r="Q3" t="n">
-        <v>165.3873378733413</v>
+        <v>165.3873378733418</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>50.4431365093071</v>
+        <v>50.44313650930754</v>
       </c>
       <c r="L4" t="n">
-        <v>120.6371554476164</v>
+        <v>120.6371554476169</v>
       </c>
       <c r="M4" t="n">
-        <v>137.6890295740222</v>
+        <v>137.6890295740228</v>
       </c>
       <c r="N4" t="n">
-        <v>139.9046037380904</v>
+        <v>139.9046037380909</v>
       </c>
       <c r="O4" t="n">
-        <v>113.046469491155</v>
+        <v>113.0464694911555</v>
       </c>
       <c r="P4" t="n">
-        <v>72.97251915310686</v>
+        <v>72.97251915310733</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
-        <v>365.7899837993235</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>347.5480607748794</v>
       </c>
       <c r="M5" t="n">
         <v>638.0987989730422</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>180.7939759345269</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>487.3789268404263</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215495</v>
+        <v>373.0365088578699</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>24.58388860977091</v>
@@ -35427,13 +35427,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,16 +35497,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>433.4611020691866</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,16 +35740,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224318</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394652</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,7 +36442,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>94.75954470991805</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36685,16 +36685,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>379.5262112417391</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>220.9409070342396</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>57.6594740049667</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37633,13 +37633,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>432.0572943778175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3514529.448604361</v>
+        <v>3516289.978907147</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7960834.368509553</v>
+        <v>7960834.368509555</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>206.0457378779508</v>
+        <v>413.9075077423441</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>156.6862937548844</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>62.22601572607282</v>
+        <v>28.31669795309211</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.9882312337392</v>
+        <v>216.9882312337391</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>107.2178712576144</v>
+        <v>136.5970034220424</v>
       </c>
       <c r="H3" t="n">
-        <v>105.0256931046872</v>
+        <v>105.0256931046871</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>63.69429571031451</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>53.80849853870432</v>
       </c>
       <c r="S3" t="n">
-        <v>157.8170057799448</v>
+        <v>10.93507936650573</v>
       </c>
       <c r="T3" t="n">
-        <v>197.1557544486215</v>
+        <v>197.1557544486214</v>
       </c>
       <c r="U3" t="n">
         <v>225.8922693348453</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>213.1097037866936</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>156.8151778159074</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>177.7682161852944</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>235.746633200876</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>108.0538860106946</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>74.52922194059501</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0669836643703</v>
@@ -1034,7 +1034,7 @@
         <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>162.2605966966365</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>61.59020550332191</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>182.6532452543415</v>
       </c>
     </row>
     <row r="8">
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>90.69811547110022</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>66.4005512133149</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1539,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>54.32649042089665</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>34.22340015155905</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>99.72336853883948</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>185.4048731212358</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444123</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2721,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>18.70843787977265</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>96.99837838564346</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>41.55695577161151</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3669,13 +3669,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>35.41770597126623</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>192.5871593887784</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1941.490116416304</v>
+        <v>1589.142112486515</v>
       </c>
       <c r="C2" t="n">
-        <v>1572.527599475892</v>
+        <v>1220.179595546103</v>
       </c>
       <c r="D2" t="n">
-        <v>1214.261900869142</v>
+        <v>861.9138969393529</v>
       </c>
       <c r="E2" t="n">
-        <v>828.4736482708975</v>
+        <v>476.1256443411086</v>
       </c>
       <c r="F2" t="n">
-        <v>417.4877434812899</v>
+        <v>469.1801435919052</v>
       </c>
       <c r="G2" t="n">
-        <v>209.3607355237639</v>
+        <v>51.09175193297165</v>
       </c>
       <c r="H2" t="n">
-        <v>209.3607355237639</v>
+        <v>51.09175193297165</v>
       </c>
       <c r="I2" t="n">
-        <v>51.09175193297148</v>
+        <v>51.09175193297165</v>
       </c>
       <c r="J2" t="n">
-        <v>156.4961545710332</v>
+        <v>156.4961545710341</v>
       </c>
       <c r="K2" t="n">
-        <v>435.2148351005005</v>
+        <v>435.2148351005023</v>
       </c>
       <c r="L2" t="n">
-        <v>833.2666318311633</v>
+        <v>833.2666318311663</v>
       </c>
       <c r="M2" t="n">
-        <v>1292.782497537223</v>
+        <v>1292.782497537227</v>
       </c>
       <c r="N2" t="n">
-        <v>1745.101812813641</v>
+        <v>1745.101812813647</v>
       </c>
       <c r="O2" t="n">
-        <v>2127.02647813281</v>
+        <v>2127.026478132816</v>
       </c>
       <c r="P2" t="n">
-        <v>2415.315960935764</v>
+        <v>2415.315960935772</v>
       </c>
       <c r="Q2" t="n">
-        <v>2554.587596648574</v>
+        <v>2554.587596648582</v>
       </c>
       <c r="R2" t="n">
-        <v>2491.733035309106</v>
+        <v>2525.984871443439</v>
       </c>
       <c r="S2" t="n">
-        <v>2491.733035309106</v>
+        <v>2525.984871443439</v>
       </c>
       <c r="T2" t="n">
-        <v>2272.553003759875</v>
+        <v>2306.804839894207</v>
       </c>
       <c r="U2" t="n">
-        <v>2272.553003759875</v>
+        <v>2306.804839894207</v>
       </c>
       <c r="V2" t="n">
-        <v>1941.490116416304</v>
+        <v>1975.741952550637</v>
       </c>
       <c r="W2" t="n">
-        <v>1941.490116416304</v>
+        <v>1975.741952550637</v>
       </c>
       <c r="X2" t="n">
-        <v>1941.490116416304</v>
+        <v>1975.741952550637</v>
       </c>
       <c r="Y2" t="n">
-        <v>1941.490116416304</v>
+        <v>1975.741952550637</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>894.6386426037197</v>
+        <v>988.652206113561</v>
       </c>
       <c r="C3" t="n">
-        <v>720.1856133225928</v>
+        <v>814.199176832434</v>
       </c>
       <c r="D3" t="n">
-        <v>571.2512036613415</v>
+        <v>665.2647671711827</v>
       </c>
       <c r="E3" t="n">
-        <v>412.013748655886</v>
+        <v>506.0273121657272</v>
       </c>
       <c r="F3" t="n">
-        <v>265.479190682771</v>
+        <v>359.4927541926121</v>
       </c>
       <c r="G3" t="n">
-        <v>157.1783106245747</v>
+        <v>221.5159830592359</v>
       </c>
       <c r="H3" t="n">
-        <v>51.09175193297148</v>
+        <v>115.4294243676328</v>
       </c>
       <c r="I3" t="n">
-        <v>51.09175193297148</v>
+        <v>51.09175193297165</v>
       </c>
       <c r="J3" t="n">
-        <v>51.09175193297148</v>
+        <v>51.09175193297165</v>
       </c>
       <c r="K3" t="n">
-        <v>295.7894542912745</v>
+        <v>295.7894542912753</v>
       </c>
       <c r="L3" t="n">
-        <v>686.2201089708944</v>
+        <v>686.220108970896</v>
       </c>
       <c r="M3" t="n">
-        <v>1193.813489198043</v>
+        <v>1193.813489198046</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.548369196019</v>
+        <v>1730.548369196023</v>
       </c>
       <c r="O3" t="n">
-        <v>2155.140246472892</v>
+        <v>2155.140246472896</v>
       </c>
       <c r="P3" t="n">
-        <v>2390.854132153965</v>
+        <v>2478.90959299131</v>
       </c>
       <c r="Q3" t="n">
-        <v>2554.587596648574</v>
+        <v>2554.587596648582</v>
       </c>
       <c r="R3" t="n">
-        <v>2554.587596648574</v>
+        <v>2500.235577922618</v>
       </c>
       <c r="S3" t="n">
-        <v>2395.176479699135</v>
+        <v>2489.190043208976</v>
       </c>
       <c r="T3" t="n">
-        <v>2196.029252983355</v>
+        <v>2290.042816493197</v>
       </c>
       <c r="U3" t="n">
-        <v>1967.855243554219</v>
+        <v>2061.86880706406</v>
       </c>
       <c r="V3" t="n">
-        <v>1732.703135322476</v>
+        <v>1826.716698832317</v>
       </c>
       <c r="W3" t="n">
-        <v>1478.465778594275</v>
+        <v>1572.479342104116</v>
       </c>
       <c r="X3" t="n">
-        <v>1270.614278388742</v>
+        <v>1364.627841898583</v>
       </c>
       <c r="Y3" t="n">
-        <v>1062.853979623788</v>
+        <v>1156.867543133629</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.09175193297148</v>
+        <v>51.09175193297165</v>
       </c>
       <c r="C4" t="n">
-        <v>51.09175193297148</v>
+        <v>51.09175193297165</v>
       </c>
       <c r="D4" t="n">
-        <v>51.09175193297148</v>
+        <v>51.09175193297165</v>
       </c>
       <c r="E4" t="n">
-        <v>51.09175193297148</v>
+        <v>51.09175193297165</v>
       </c>
       <c r="F4" t="n">
-        <v>51.09175193297148</v>
+        <v>51.09175193297165</v>
       </c>
       <c r="G4" t="n">
-        <v>51.09175193297148</v>
+        <v>51.09175193297165</v>
       </c>
       <c r="H4" t="n">
-        <v>51.09175193297148</v>
+        <v>51.09175193297165</v>
       </c>
       <c r="I4" t="n">
-        <v>51.09175193297148</v>
+        <v>51.09175193297165</v>
       </c>
       <c r="J4" t="n">
-        <v>51.09175193297148</v>
+        <v>51.09175193297165</v>
       </c>
       <c r="K4" t="n">
-        <v>101.0304570771859</v>
+        <v>101.0304570771865</v>
       </c>
       <c r="L4" t="n">
-        <v>220.4612409703267</v>
+        <v>220.4612409703277</v>
       </c>
       <c r="M4" t="n">
-        <v>356.7733802486092</v>
+        <v>356.7733802486107</v>
       </c>
       <c r="N4" t="n">
-        <v>495.2789379493192</v>
+        <v>495.2789379493213</v>
       </c>
       <c r="O4" t="n">
-        <v>607.1949427455633</v>
+        <v>607.1949427455658</v>
       </c>
       <c r="P4" t="n">
-        <v>679.4377367071395</v>
+        <v>679.4377367071424</v>
       </c>
       <c r="Q4" t="n">
-        <v>679.4377367071395</v>
+        <v>679.4377367071424</v>
       </c>
       <c r="R4" t="n">
-        <v>679.4377367071395</v>
+        <v>679.4377367071424</v>
       </c>
       <c r="S4" t="n">
-        <v>679.4377367071395</v>
+        <v>464.1754096498761</v>
       </c>
       <c r="T4" t="n">
-        <v>679.4377367071395</v>
+        <v>305.7762401388585</v>
       </c>
       <c r="U4" t="n">
-        <v>679.4377367071395</v>
+        <v>305.7762401388585</v>
       </c>
       <c r="V4" t="n">
-        <v>679.4377367071395</v>
+        <v>51.09175193297165</v>
       </c>
       <c r="W4" t="n">
-        <v>499.8738819745189</v>
+        <v>51.09175193297165</v>
       </c>
       <c r="X4" t="n">
-        <v>271.8843310765016</v>
+        <v>51.09175193297165</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.09175193297148</v>
+        <v>51.09175193297165</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1844.676600992462</v>
+        <v>1629.876739260174</v>
       </c>
       <c r="C5" t="n">
-        <v>1475.714084052051</v>
+        <v>1260.914222319762</v>
       </c>
       <c r="D5" t="n">
-        <v>1117.4483854453</v>
+        <v>902.6485237130116</v>
       </c>
       <c r="E5" t="n">
-        <v>879.3204731211831</v>
+        <v>902.6485237130116</v>
       </c>
       <c r="F5" t="n">
-        <v>468.3345683315756</v>
+        <v>895.7030229638082</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>478.6152412002356</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>160.3921259727451</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
@@ -4573,16 +4573,16 @@
         <v>643.3537986017849</v>
       </c>
       <c r="L5" t="n">
-        <v>987.4263787689155</v>
+        <v>1196.167056847984</v>
       </c>
       <c r="M5" t="n">
-        <v>1619.144189752227</v>
+        <v>1382.866469673392</v>
       </c>
       <c r="N5" t="n">
-        <v>2246.451857812074</v>
+        <v>1577.200682565374</v>
       </c>
       <c r="O5" t="n">
-        <v>2416.620883129033</v>
+        <v>2098.040162039265</v>
       </c>
       <c r="P5" t="n">
         <v>2527.35520837856</v>
@@ -4597,22 +4597,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2347.539466667866</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2347.539466667866</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056584</v>
+        <v>2016.476579324295</v>
       </c>
       <c r="W5" t="n">
-        <v>2231.276441056584</v>
+        <v>2016.476579324295</v>
       </c>
       <c r="X5" t="n">
-        <v>2231.276441056584</v>
+        <v>2016.476579324295</v>
       </c>
       <c r="Y5" t="n">
-        <v>2231.276441056584</v>
+        <v>2016.476579324295</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>893.4159553857312</v>
+        <v>964.6684709946088</v>
       </c>
       <c r="C6" t="n">
-        <v>718.9629261046042</v>
+        <v>790.2154417134818</v>
       </c>
       <c r="D6" t="n">
-        <v>570.0285164433529</v>
+        <v>641.2810320522306</v>
       </c>
       <c r="E6" t="n">
-        <v>410.7910614378974</v>
+        <v>482.0435770467751</v>
       </c>
       <c r="F6" t="n">
         <v>335.5090190736601</v>
@@ -4649,22 +4649,22 @@
         <v>51.2467865680031</v>
       </c>
       <c r="K6" t="n">
-        <v>380.675190873813</v>
+        <v>118.8546062313601</v>
       </c>
       <c r="L6" t="n">
-        <v>885.0367307399315</v>
+        <v>623.2161460974787</v>
       </c>
       <c r="M6" t="n">
-        <v>1367.541868311954</v>
+        <v>1257.395129876517</v>
       </c>
       <c r="N6" t="n">
-        <v>1566.198609964618</v>
+        <v>1456.051871529182</v>
       </c>
       <c r="O6" t="n">
-        <v>2115.634618717341</v>
+        <v>1907.658103858851</v>
       </c>
       <c r="P6" t="n">
-        <v>2539.602387198178</v>
+        <v>2331.625872339687</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4682,16 +4682,16 @@
         <v>1966.63255633623</v>
       </c>
       <c r="V6" t="n">
-        <v>1731.480448104488</v>
+        <v>1802.732963713365</v>
       </c>
       <c r="W6" t="n">
-        <v>1477.243091376286</v>
+        <v>1548.495606985163</v>
       </c>
       <c r="X6" t="n">
-        <v>1269.391591170753</v>
+        <v>1340.644106779631</v>
       </c>
       <c r="Y6" t="n">
-        <v>1061.631292405799</v>
+        <v>1132.883808014677</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>131.3337031186</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="C7" t="n">
-        <v>69.12137432736571</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D7" t="n">
-        <v>69.12137432736571</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
         <v>51.2467865680031</v>
@@ -4770,7 +4770,7 @@
         <v>533.7747470923698</v>
       </c>
       <c r="Y7" t="n">
-        <v>312.9821679488397</v>
+        <v>349.2765195627319</v>
       </c>
     </row>
     <row r="8">
@@ -4792,7 +4792,7 @@
         <v>540.2706867570294</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674218</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G8" t="n">
         <v>117.6204357321147</v>
@@ -4804,13 +4804,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4877,34 +4877,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>482.9033490193025</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L9" t="n">
-        <v>777.6069060507741</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M9" t="n">
-        <v>1140.868925009994</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1528.154053606939</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1860.224488783101</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.2996089082458</v>
+        <v>938.9442613508772</v>
       </c>
       <c r="C10" t="n">
-        <v>201.3634259803388</v>
+        <v>770.0080784229704</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>619.8914390106346</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>471.9783454282415</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1544.831862022881</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1290.147373816994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1000.730203780033</v>
+        <v>1569.374856222664</v>
       </c>
       <c r="X10" t="n">
-        <v>772.7406528820156</v>
+        <v>1341.385305324647</v>
       </c>
       <c r="Y10" t="n">
-        <v>551.9480737384855</v>
+        <v>1120.592726181117</v>
       </c>
     </row>
     <row r="11">
@@ -5035,10 +5035,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5050,10 +5050,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5187,10 +5187,10 @@
         <v>295.5818533952728</v>
       </c>
       <c r="F13" t="n">
-        <v>148.6919058973624</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>128.3857541101527</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2096.33187019581</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1807.256643540008</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1552.572155334121</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1263.15498529716</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1035.165434399143</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>814.3728552556131</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5794,7 +5794,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
@@ -6229,49 +6229,49 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>175.9033664000582</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6472,7 +6472,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6490,10 +6490,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6545,10 +6545,10 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M30" t="n">
         <v>680.0291294438176</v>
@@ -6600,19 +6600,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6679,31 +6679,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6724,25 +6724,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048574</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925216</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E34" t="n">
-        <v>444.7013164925216</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F34" t="n">
-        <v>444.7013164925216</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="G34" t="n">
-        <v>277.5052172074016</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H34" t="n">
-        <v>135.7933860495997</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6940,10 +6940,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6955,7 +6955,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6973,10 +6973,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -7074,19 +7074,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7177,16 +7177,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="41">
@@ -7393,13 +7393,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7450,10 +7450,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2185.384895601574</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,10 +7636,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7648,10 +7648,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>56.30844904164192</v>
+        <v>56.30844904164157</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>229.5178587032304</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>121.1323777991454</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,19 +8221,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>206.8120447736135</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>354.2125799564968</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8297,25 +8297,25 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>306.0684860781992</v>
+        <v>459.2743913378117</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>295.0443632938466</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4490126143851</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>265.0304328515139</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>111.1976478713722</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>106.0713126946648</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>117.6820817884488</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>101.1181252153552</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>127.7255247667965</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D31" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>68.52575990662538</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>39.70888054695403</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25557,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>110.003342051665</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.8182909385099</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>774338.3240825951</v>
+        <v>774338.3240825952</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>672605.3283593905</v>
+        <v>672605.3283593906</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>672605.3283593905</v>
+        <v>672605.3283593906</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>672605.3283593905</v>
+        <v>672605.3283593906</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>672605.3283593905</v>
+        <v>672605.3283593908</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>672605.3283593905</v>
+        <v>672605.3283593906</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244618</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244624</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132548</v>
       </c>
       <c r="G2" t="n">
+        <v>746610.604713255</v>
+      </c>
+      <c r="H2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="H2" t="n">
-        <v>746610.6047132553</v>
-      </c>
       <c r="I2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="L2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="N2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132553</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548460.0746161959</v>
+        <v>548460.0746161982</v>
       </c>
       <c r="C3" t="n">
-        <v>225009.9816299277</v>
+        <v>225009.9816299254</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230265</v>
+        <v>291685.0095230266</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167098.1292843798</v>
+        <v>167098.1292843806</v>
       </c>
       <c r="K3" t="n">
-        <v>498.7619243602991</v>
+        <v>498.7619243595676</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247452.3619198066</v>
+        <v>247452.361919806</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
@@ -26441,13 +26441,13 @@
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719731</v>
+        <v>7507.368461719718</v>
       </c>
       <c r="K4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719718</v>
       </c>
       <c r="M4" t="n">
         <v>7507.368461719667</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80023.31371946022</v>
+        <v>80023.31371946039</v>
       </c>
       <c r="C5" t="n">
         <v>85512.93677905216</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-116472.1131310009</v>
+        <v>-116472.1131310023</v>
       </c>
       <c r="C6" t="n">
-        <v>250628.0840553302</v>
+        <v>250628.0840553325</v>
       </c>
       <c r="D6" t="n">
-        <v>241726.9916148471</v>
+        <v>241726.9916148466</v>
       </c>
       <c r="E6" t="n">
-        <v>130147.8855487257</v>
+        <v>130460.526877647</v>
       </c>
       <c r="F6" t="n">
-        <v>637633.3271732713</v>
+        <v>637945.9685021924</v>
       </c>
       <c r="G6" t="n">
-        <v>637633.3271732714</v>
+        <v>637945.9685021925</v>
       </c>
       <c r="H6" t="n">
-        <v>637633.3271732716</v>
+        <v>637945.9685021928</v>
       </c>
       <c r="I6" t="n">
-        <v>637633.3271732716</v>
+        <v>637945.9685021928</v>
       </c>
       <c r="J6" t="n">
-        <v>470535.1978888917</v>
+        <v>470847.8392178123</v>
       </c>
       <c r="K6" t="n">
-        <v>637134.5652489113</v>
+        <v>637447.2065778334</v>
       </c>
       <c r="L6" t="n">
-        <v>637633.3271732714</v>
+        <v>637945.9685021925</v>
       </c>
       <c r="M6" t="n">
-        <v>505026.0334443446</v>
+        <v>505338.6747732661</v>
       </c>
       <c r="N6" t="n">
-        <v>637633.3271732716</v>
+        <v>637945.9685021929</v>
       </c>
       <c r="O6" t="n">
-        <v>637633.3271732713</v>
+        <v>637945.9685021928</v>
       </c>
       <c r="P6" t="n">
-        <v>637633.3271732713</v>
+        <v>637945.9685021929</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817383</v>
+        <v>347.0634059817401</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621434</v>
+        <v>638.6468991621456</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
@@ -26813,13 +26813,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817383</v>
+        <v>347.0634059817401</v>
       </c>
       <c r="C3" t="n">
-        <v>246.4126943563268</v>
+        <v>246.412694356325</v>
       </c>
       <c r="D3" t="n">
-        <v>340.588791779474</v>
+        <v>340.5887917794743</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621434</v>
+        <v>638.6468991621456</v>
       </c>
       <c r="C4" t="n">
-        <v>1.937932937895312</v>
+        <v>1.937932937893152</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621432</v>
+        <v>638.646899162146</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937895539</v>
+        <v>1.937932937892697</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621434</v>
+        <v>638.6468991621456</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937895312</v>
+        <v>1.937932937893152</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>207.8617698643934</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>325.1859052051723</v>
+        <v>325.1859052051722</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>156.6862937548842</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>33.90931777298026</v>
       </c>
       <c r="S2" t="n">
-        <v>177.2262711387725</v>
+        <v>177.2262711387723</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29.37913216442801</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>63.69429571031464</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.80849853870455</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>146.881926413439</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.6627788836668</v>
       </c>
       <c r="I4" t="n">
-        <v>136.6293971077896</v>
+        <v>136.6293971077895</v>
       </c>
       <c r="J4" t="n">
-        <v>49.11144063601739</v>
+        <v>49.11144063601717</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.75546894845191</v>
+        <v>33.75546894845164</v>
       </c>
       <c r="R4" t="n">
-        <v>149.1528076724863</v>
+        <v>149.1528076724861</v>
       </c>
       <c r="S4" t="n">
-        <v>213.1097037866937</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.2714943330124</v>
+        <v>68.45631651710497</v>
       </c>
       <c r="U4" t="n">
         <v>286.284891972296</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>108.7547821512966</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>146.1837368713857</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>10.4421548831957</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
@@ -27706,7 +27706,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>70.53999045278887</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27754,7 +27754,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>70.53999045278877</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>105.6566155953059</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>35.93140809775332</v>
       </c>
     </row>
     <row r="8">
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,13 +28067,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>195.5290386501004</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>220.1224471232761</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.395229772790907</v>
+        <v>1.395229772790914</v>
       </c>
       <c r="H2" t="n">
-        <v>14.28889691059488</v>
+        <v>14.28889691059495</v>
       </c>
       <c r="I2" t="n">
-        <v>53.78959581552148</v>
+        <v>53.78959581552176</v>
       </c>
       <c r="J2" t="n">
-        <v>118.4183829284123</v>
+        <v>118.4183829284129</v>
       </c>
       <c r="K2" t="n">
-        <v>177.4784592106514</v>
+        <v>177.4784592106523</v>
       </c>
       <c r="L2" t="n">
-        <v>220.1777223697012</v>
+        <v>220.1777223697023</v>
       </c>
       <c r="M2" t="n">
-        <v>244.9901398415715</v>
+        <v>244.9901398415727</v>
       </c>
       <c r="N2" t="n">
-        <v>248.9543364335136</v>
+        <v>248.9543364335149</v>
       </c>
       <c r="O2" t="n">
-        <v>235.0805203803241</v>
+        <v>235.0805203803253</v>
       </c>
       <c r="P2" t="n">
-        <v>200.6357853645485</v>
+        <v>200.6357853645495</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.6691191264741</v>
+        <v>150.6691191264749</v>
       </c>
       <c r="R2" t="n">
-        <v>87.64310221507687</v>
+        <v>87.64310221507732</v>
       </c>
       <c r="S2" t="n">
-        <v>31.79379844747282</v>
+        <v>31.79379844747298</v>
       </c>
       <c r="T2" t="n">
-        <v>6.107618330392197</v>
+        <v>6.107618330392228</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1116183818232725</v>
+        <v>0.1116183818232731</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7465137411682673</v>
+        <v>0.7465137411682711</v>
       </c>
       <c r="H3" t="n">
-        <v>7.20975113180932</v>
+        <v>7.209751131809356</v>
       </c>
       <c r="I3" t="n">
-        <v>25.70233714110044</v>
+        <v>25.70233714110056</v>
       </c>
       <c r="J3" t="n">
-        <v>70.52917762502477</v>
+        <v>70.52917762502513</v>
       </c>
       <c r="K3" t="n">
-        <v>120.5455982832987</v>
+        <v>120.5455982832993</v>
       </c>
       <c r="L3" t="n">
-        <v>162.0884331426977</v>
+        <v>162.0884331426985</v>
       </c>
       <c r="M3" t="n">
-        <v>189.1495562600473</v>
+        <v>189.1495562600483</v>
       </c>
       <c r="N3" t="n">
-        <v>194.1557821821802</v>
+        <v>194.1557821821812</v>
       </c>
       <c r="O3" t="n">
-        <v>177.6146092857675</v>
+        <v>177.6146092857684</v>
       </c>
       <c r="P3" t="n">
-        <v>142.5513827323861</v>
+        <v>142.5513827323868</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.29182422351427</v>
+        <v>95.29182422351475</v>
       </c>
       <c r="R3" t="n">
-        <v>46.34933561393858</v>
+        <v>46.34933561393881</v>
       </c>
       <c r="S3" t="n">
-        <v>13.86616532389303</v>
+        <v>13.8661653238931</v>
       </c>
       <c r="T3" t="n">
-        <v>3.008974246200164</v>
+        <v>3.008974246200179</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04911274612949129</v>
+        <v>0.04911274612949154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6258520435736263</v>
+        <v>0.6258520435736296</v>
       </c>
       <c r="H4" t="n">
-        <v>5.564393623772792</v>
+        <v>5.564393623772819</v>
       </c>
       <c r="I4" t="n">
-        <v>18.8210778194687</v>
+        <v>18.82107781946879</v>
       </c>
       <c r="J4" t="n">
-        <v>44.24773948065538</v>
+        <v>44.2477394806556</v>
       </c>
       <c r="K4" t="n">
-        <v>72.71262833519039</v>
+        <v>72.71262833519076</v>
       </c>
       <c r="L4" t="n">
-        <v>93.04713018730079</v>
+        <v>93.04713018730126</v>
       </c>
       <c r="M4" t="n">
-        <v>98.10515261218217</v>
+        <v>98.10515261218266</v>
       </c>
       <c r="N4" t="n">
-        <v>95.77243135886236</v>
+        <v>95.77243135886285</v>
       </c>
       <c r="O4" t="n">
-        <v>88.46134157711587</v>
+        <v>88.46134157711633</v>
       </c>
       <c r="P4" t="n">
-        <v>75.69395988821384</v>
+        <v>75.69395988821422</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.40657430324248</v>
+        <v>52.40657430324275</v>
       </c>
       <c r="R4" t="n">
-        <v>28.14058370468323</v>
+        <v>28.14058370468337</v>
       </c>
       <c r="S4" t="n">
-        <v>10.90689425027856</v>
+        <v>10.90689425027861</v>
       </c>
       <c r="T4" t="n">
-        <v>2.67409509526913</v>
+        <v>2.674095095269144</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03413738419492512</v>
+        <v>0.03413738419492529</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -33265,13 +33265,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>244.0266243181833</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>106.4690935737998</v>
+        <v>106.4690935738004</v>
       </c>
       <c r="K2" t="n">
-        <v>281.5340207368356</v>
+        <v>281.5340207368365</v>
       </c>
       <c r="L2" t="n">
-        <v>402.0725219501644</v>
+        <v>402.0725219501655</v>
       </c>
       <c r="M2" t="n">
-        <v>464.1574401071313</v>
+        <v>464.1574401071325</v>
       </c>
       <c r="N2" t="n">
-        <v>456.8881972489069</v>
+        <v>456.8881972489082</v>
       </c>
       <c r="O2" t="n">
-        <v>385.7824902213827</v>
+        <v>385.7824902213839</v>
       </c>
       <c r="P2" t="n">
-        <v>291.2014977807617</v>
+        <v>291.2014977807627</v>
       </c>
       <c r="Q2" t="n">
-        <v>140.6784199119293</v>
+        <v>140.6784199119301</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>247.1693963215183</v>
+        <v>247.1693963215189</v>
       </c>
       <c r="L3" t="n">
-        <v>394.3743986662827</v>
+        <v>394.3743986662835</v>
       </c>
       <c r="M3" t="n">
-        <v>512.720586088029</v>
+        <v>512.7205860880299</v>
       </c>
       <c r="N3" t="n">
-        <v>542.1564444424005</v>
+        <v>542.1564444424014</v>
       </c>
       <c r="O3" t="n">
-        <v>428.8806841180526</v>
+        <v>428.8806841180535</v>
       </c>
       <c r="P3" t="n">
-        <v>238.0948340212863</v>
+        <v>327.0397439579937</v>
       </c>
       <c r="Q3" t="n">
-        <v>165.3873378733418</v>
+        <v>76.44242793663864</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>50.44313650930754</v>
+        <v>50.44313650930791</v>
       </c>
       <c r="L4" t="n">
-        <v>120.6371554476169</v>
+        <v>120.6371554476174</v>
       </c>
       <c r="M4" t="n">
-        <v>137.6890295740228</v>
+        <v>137.6890295740233</v>
       </c>
       <c r="N4" t="n">
-        <v>139.9046037380909</v>
+        <v>139.9046037380915</v>
       </c>
       <c r="O4" t="n">
-        <v>113.0464694911555</v>
+        <v>113.046469491156</v>
       </c>
       <c r="P4" t="n">
-        <v>72.97251915310733</v>
+        <v>72.97251915310771</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34941,19 +34941,19 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>347.5480607748794</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O5" t="n">
-        <v>171.8879043605652</v>
+        <v>526.100484317062</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
         <v>35.33749497130819</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>487.3789268404263</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N6" t="n">
         <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
-        <v>554.9858674269929</v>
+        <v>456.1679114441098</v>
       </c>
       <c r="P6" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>373.0365088578699</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>514.7099619750462</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902427</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>101.892590396165</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902427</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
